--- a/Excel/auth_64/main/01/s09/cmn.xlsx
+++ b/Excel/auth_64/main/01/s09/cmn.xlsx
@@ -20,7 +20,7 @@
     <t>ORIGINAL</t>
   </si>
   <si>
-    <t>TRADUÇÃO</t>
+    <t>TRADUCCIÓN</t>
   </si>
   <si>
     <t>Wh-Who ARE you?</t>
@@ -74,13 +74,13 @@
     <t>I heard she's real easy on the eyes...\nEveryone's sayin' so.</t>
   </si>
   <si>
-    <t>Ouvi dizer que ela é bem fácil, só de olhar...\nTodo mundo está dizendo isso.</t>
+    <t>Ouvi dizer que ela é bem fácil, só de olhar...\nÉ o que todos estão dizendo.</t>
   </si>
   <si>
     <t>They all just want in on the action!</t>
   </si>
   <si>
-    <t>They all just want in on the action!\r\nTodos querem apenas entrar em ação!</t>
+    <t>Todos eles só querem aproveitar!</t>
   </si>
   <si>
     <t>Anyway... Whadda we do with this fool?</t>
@@ -104,7 +104,7 @@
     <t>Too soft, Kiryu-chan! Soft as a marshmallow!</t>
   </si>
   <si>
-    <t>Muito leve, Kiryu-chan! Leve como um palito de dente!</t>
+    <t>Muito mole, Kiryu-chan! Mole como um marshmallow!</t>
   </si>
   <si>
     <t>You gotta make things right... Like so!</t>
@@ -170,7 +170,7 @@
     <t>Yeah. I'll keep that in mind.</t>
   </si>
   <si>
-    <t>É.\nIrei me lembrar disso.</t>
+    <t>É. Irei me lembrar disso.</t>
   </si>
   <si>
     <t>But...</t>
@@ -230,7 +230,7 @@
     <t>I've got no reason to fight you.</t>
   </si>
   <si>
-    <t>Não tenho motivos para brigar com você.</t>
+    <t>Não tenho motivos para brigar com você, irmão.</t>
   </si>
   <si>
     <t>There's no point.</t>
@@ -254,7 +254,7 @@
     <t>If I've made you angry, Majima-san, I apologize.</t>
   </si>
   <si>
-    <t>Se por acaso eu te irritei, Majima-san, me desculpe.</t>
+    <t>Se por acaso eu te irritei, irmão, me desculpe.</t>
   </si>
   <si>
     <t>What was that?</t>
@@ -374,7 +374,7 @@
     <t>I'll have my eye on you, 24/7!</t>
   </si>
   <si>
-    <t>Ficarei de olho em você, 24/7!</t>
+    <t>Ficarei de olho em você, 24/7!_x0013_</t>
   </si>
   <si>
     <t>What?</t>
@@ -410,7 +410,7 @@
     <t>Then all I need to do is come up with a plan\nto make ya fight me!</t>
   </si>
   <si>
-    <t>Então tudo que preciso é criar um plano\r\npara você lutar comigo!</t>
+    <t>Então tudo que preciso é criar \num plano para você lutar comigo!</t>
   </si>
   <si>
     <t>Let's bounce, guys!</t>
